--- a/InputFiles/CDS/TC07_CDS_phs002050_LibrarySource_Genomic.xlsx
+++ b/InputFiles/CDS/TC07_CDS_phs002050_LibrarySource_Genomic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0925\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\sowjanya0305\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A45CEC-A106-4918-80EC-8BC071B1C017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9718D395-18A7-4120-A57A-322D1991225C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="28800" windowHeight="15435" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,10 @@
     <t>TsvExcel</t>
   </si>
   <si>
-    <t>TC07_CDS_phs001713_LibrarySource_Genomic_TSVData.xlsx</t>
-  </si>
-  <si>
-    <t>TC07_CDS_phs001713_LibrarySource_Genomic_WebData.xlsx</t>
+    <t>TC07_CDS_phs002050_LibrarySource_Genomic_WebData.xlsx</t>
+  </si>
+  <si>
+    <t>TC07_CDS_phs002050_LibrarySource_Genomic_TSVData.xlsx</t>
   </si>
   <si>
     <t>SELECT
@@ -83,7 +83,7 @@
 JOIN 
     df_genomic_info gi ON gi."file.file_id" = f.file_id
 WHERE 
-    s.phs_accession = 'phs001713' AND gi.library_source = 'Genomic';</t>
+    s.phs_accession = 'phs002050' AND gi.library_source = 'Genomic';</t>
   </si>
   <si>
     <t>WITH Distinct_Samples AS (
@@ -109,7 +109,7 @@
     JOIN
         df_genomic_info gi ON gi."file.file_id" = f1.file_id
     WHERE 
-        s.phs_accession = 'phs001713' AND gi.library_source = 'Genomic'
+        s.phs_accession = 'phs002050' AND gi.library_source = 'Genomic'
 ),
 Sample_Limit AS (
     SELECT
@@ -167,7 +167,7 @@
 JOIN
     df_genomic_info gi ON gi."file.file_id" = f1.file_id
 WHERE 
-   s.phs_accession = 'phs001713' AND gi.library_source = 'Genomic'
+   s.phs_accession = 'phs002050' AND gi.library_source = 'Genomic'
 ORDER BY 
     smp.sample_id ASC
 LIMIT 100;</t>
@@ -207,7 +207,7 @@
 INNER JOIN
     df_program p ON p.program_acronym = s."program.program_acronym"
 WHERE 
-    s.phs_accession = 'phs001713' AND gi.library_source = 'Genomic'
+    s.phs_accession = 'phs002050' AND gi.library_source = 'Genomic'
 GROUP BY
     f1.file_name,
     s.study_name,
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +649,10 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
